--- a/Practise sheets/Strings LeetCode Question.xlsx
+++ b/Practise sheets/Strings LeetCode Question.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\SelfStudy\Practise sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80776FC9-9E91-416C-971B-1C935B0E1D9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68DF9A5F-52FB-4BA1-915C-E8D30B04454B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EDAACE1E-F51B-0042-B9D0-84A18D0CDE37}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="485">
   <si>
     <t>Title</t>
   </si>
@@ -1888,8 +1888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB8095F-8123-F64C-AA91-90E923F3A720}">
   <dimension ref="A1:F476"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="105" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A464" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="F464" sqref="F464"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -9287,7 +9287,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="433" spans="1:5" ht="18">
+    <row r="433" spans="1:6" ht="18">
       <c r="A433" s="5">
         <v>432</v>
       </c>
@@ -9304,7 +9304,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="434" spans="1:5" ht="18">
+    <row r="434" spans="1:6" ht="18">
       <c r="A434" s="2">
         <v>433</v>
       </c>
@@ -9321,7 +9321,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="435" spans="1:5" ht="18">
+    <row r="435" spans="1:6" ht="18">
       <c r="A435" s="5">
         <v>434</v>
       </c>
@@ -9338,7 +9338,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="436" spans="1:5" ht="18">
+    <row r="436" spans="1:6" ht="18">
       <c r="A436" s="5">
         <v>435</v>
       </c>
@@ -9355,7 +9355,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="437" spans="1:5" ht="18">
+    <row r="437" spans="1:6" ht="18">
       <c r="A437" s="2">
         <v>436</v>
       </c>
@@ -9372,7 +9372,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="438" spans="1:5" ht="18">
+    <row r="438" spans="1:6" ht="18">
       <c r="A438" s="5">
         <v>437</v>
       </c>
@@ -9389,7 +9389,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="439" spans="1:5" ht="18">
+    <row r="439" spans="1:6" ht="18">
       <c r="A439" s="5">
         <v>438</v>
       </c>
@@ -9406,7 +9406,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="440" spans="1:5" ht="18">
+    <row r="440" spans="1:6" ht="18">
       <c r="A440" s="2">
         <v>439</v>
       </c>
@@ -9423,7 +9423,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="441" spans="1:5" ht="18">
+    <row r="441" spans="1:6" ht="18">
       <c r="A441" s="5">
         <v>440</v>
       </c>
@@ -9439,8 +9439,11 @@
       <c r="E441" s="6" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="442" spans="1:5" ht="18">
+      <c r="F441" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6" ht="18">
       <c r="A442" s="5">
         <v>441</v>
       </c>
@@ -9456,8 +9459,11 @@
       <c r="E442" s="6" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="443" spans="1:5" ht="18">
+      <c r="F442" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6" ht="18">
       <c r="A443" s="2">
         <v>442</v>
       </c>
@@ -9473,8 +9479,11 @@
       <c r="E443" s="6" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="444" spans="1:5" ht="18">
+      <c r="F443" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6" ht="18">
       <c r="A444" s="5">
         <v>443</v>
       </c>
@@ -9490,8 +9499,11 @@
       <c r="E444" s="6" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="445" spans="1:5" ht="18">
+      <c r="F444" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6" ht="18">
       <c r="A445" s="5">
         <v>444</v>
       </c>
@@ -9507,8 +9519,11 @@
       <c r="E445" s="6" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="446" spans="1:5" ht="18">
+      <c r="F445" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6" ht="18">
       <c r="A446" s="2">
         <v>445</v>
       </c>
@@ -9524,8 +9539,11 @@
       <c r="E446" s="6" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="447" spans="1:5" ht="18">
+      <c r="F446" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6" ht="18">
       <c r="A447" s="5">
         <v>446</v>
       </c>
@@ -9541,8 +9559,11 @@
       <c r="E447" s="6" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="448" spans="1:5" ht="18">
+      <c r="F447" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6" ht="18">
       <c r="A448" s="5">
         <v>447</v>
       </c>
@@ -9558,8 +9579,11 @@
       <c r="E448" s="6" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="449" spans="1:5" ht="18">
+      <c r="F448" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6" ht="18">
       <c r="A449" s="2">
         <v>448</v>
       </c>
@@ -9575,8 +9599,11 @@
       <c r="E449" s="6" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="450" spans="1:5" ht="18">
+      <c r="F449" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6" ht="18">
       <c r="A450" s="5">
         <v>449</v>
       </c>
@@ -9592,8 +9619,11 @@
       <c r="E450" s="6" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="451" spans="1:5" ht="18">
+      <c r="F450" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6" ht="18">
       <c r="A451" s="5">
         <v>450</v>
       </c>
@@ -9609,8 +9639,11 @@
       <c r="E451" s="6" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="452" spans="1:5" ht="18">
+      <c r="F451" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6" ht="18">
       <c r="A452" s="2">
         <v>451</v>
       </c>
@@ -9626,8 +9659,11 @@
       <c r="E452" s="6" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="453" spans="1:5" ht="18">
+      <c r="F452" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6" ht="18">
       <c r="A453" s="5">
         <v>452</v>
       </c>
@@ -9643,8 +9679,11 @@
       <c r="E453" s="6" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="454" spans="1:5" ht="18">
+      <c r="F453" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6" ht="18">
       <c r="A454" s="5">
         <v>453</v>
       </c>
@@ -9660,8 +9699,11 @@
       <c r="E454" s="6" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="455" spans="1:5" ht="18">
+      <c r="F454" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6" ht="18">
       <c r="A455" s="2">
         <v>454</v>
       </c>
@@ -9677,8 +9719,11 @@
       <c r="E455" s="6" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="456" spans="1:5" ht="18">
+      <c r="F455" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6" ht="18">
       <c r="A456" s="5">
         <v>455</v>
       </c>
@@ -9694,8 +9739,11 @@
       <c r="E456" s="6" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="457" spans="1:5" ht="18">
+      <c r="F456" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="457" spans="1:6" ht="18">
       <c r="A457" s="5">
         <v>456</v>
       </c>
@@ -9711,8 +9759,11 @@
       <c r="E457" s="6" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="458" spans="1:5" ht="18">
+      <c r="F457" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="458" spans="1:6" ht="18">
       <c r="A458" s="2">
         <v>457</v>
       </c>
@@ -9728,8 +9779,11 @@
       <c r="E458" s="6" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="459" spans="1:5" ht="18">
+      <c r="F458" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="459" spans="1:6" ht="18">
       <c r="A459" s="5">
         <v>458</v>
       </c>
@@ -9745,8 +9799,11 @@
       <c r="E459" s="6" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="460" spans="1:5" ht="18">
+      <c r="F459" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="460" spans="1:6" ht="18">
       <c r="A460" s="5">
         <v>459</v>
       </c>
@@ -9762,8 +9819,11 @@
       <c r="E460" s="6" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="461" spans="1:5" ht="18">
+      <c r="F460" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="461" spans="1:6" ht="18">
       <c r="A461" s="2">
         <v>460</v>
       </c>
@@ -9779,8 +9839,11 @@
       <c r="E461" s="6" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="462" spans="1:5" ht="18">
+      <c r="F461" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="462" spans="1:6" ht="18">
       <c r="A462" s="5">
         <v>461</v>
       </c>
@@ -9796,8 +9859,11 @@
       <c r="E462" s="6" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="463" spans="1:5" ht="18">
+      <c r="F462" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="463" spans="1:6" ht="18">
       <c r="A463" s="5">
         <v>462</v>
       </c>
@@ -9813,8 +9879,11 @@
       <c r="E463" s="6" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="464" spans="1:5" ht="18">
+      <c r="F463" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="464" spans="1:6" ht="18">
       <c r="A464" s="2">
         <v>463</v>
       </c>
@@ -9829,6 +9898,9 @@
       </c>
       <c r="E464" s="6" t="s">
         <v>183</v>
+      </c>
+      <c r="F464" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="465" spans="1:5" ht="18">
